--- a/Data_frame/balancos_definitivos/WIZC3.xlsx
+++ b/Data_frame/balancos_definitivos/WIZC3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK80"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -734,6 +749,15 @@
       <c r="AK2" t="n">
         <v>2293665.024</v>
       </c>
+      <c r="AL2" t="n">
+        <v>2543864.064</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2615521.024</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2532305.92</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -849,6 +873,15 @@
       <c r="AK3" t="n">
         <v>521688</v>
       </c>
+      <c r="AL3" t="n">
+        <v>573198.976</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>651928</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>533417.9840000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -964,6 +997,15 @@
       <c r="AK4" t="n">
         <v>40164</v>
       </c>
+      <c r="AL4" t="n">
+        <v>35566</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>36996</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>26724</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1079,6 +1121,15 @@
       <c r="AK5" t="n">
         <v>211503.008</v>
       </c>
+      <c r="AL5" t="n">
+        <v>261052.992</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>329558.016</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>249880</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1194,6 +1245,15 @@
       <c r="AK6" t="n">
         <v>128995</v>
       </c>
+      <c r="AL6" t="n">
+        <v>127911</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>138648.992</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>150315.008</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1309,6 +1369,15 @@
       <c r="AK7" t="n">
         <v>0</v>
       </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1424,6 +1493,15 @@
       <c r="AK8" t="n">
         <v>0</v>
       </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1539,6 +1617,15 @@
       <c r="AK9" t="n">
         <v>0</v>
       </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>99358</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>56426</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1654,6 +1741,15 @@
       <c r="AK10" t="n">
         <v>0</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1769,6 +1865,15 @@
       <c r="AK11" t="n">
         <v>141026</v>
       </c>
+      <c r="AL11" t="n">
+        <v>148668.992</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>47367</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>50073</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1884,6 +1989,15 @@
       <c r="AK12" t="n">
         <v>61587</v>
       </c>
+      <c r="AL12" t="n">
+        <v>56566</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>67186</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>120034</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1999,6 +2113,15 @@
       <c r="AK13" t="n">
         <v>0</v>
       </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2114,6 +2237,15 @@
       <c r="AK14" t="n">
         <v>0</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2229,6 +2361,15 @@
       <c r="AK15" t="n">
         <v>0</v>
       </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2344,6 +2485,15 @@
       <c r="AK16" t="n">
         <v>0</v>
       </c>
+      <c r="AL16" t="n">
+        <v>547</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>561</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>50582</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2459,6 +2609,15 @@
       <c r="AK17" t="n">
         <v>0</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2574,6 +2733,15 @@
       <c r="AK18" t="n">
         <v>0</v>
       </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2689,6 +2857,15 @@
       <c r="AK19" t="n">
         <v>0</v>
       </c>
+      <c r="AL19" t="n">
+        <v>18210</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>22453</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>23807</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2804,6 +2981,15 @@
       <c r="AK20" t="n">
         <v>0</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2919,6 +3105,15 @@
       <c r="AK21" t="n">
         <v>0</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3034,6 +3229,15 @@
       <c r="AK22" t="n">
         <v>153747.008</v>
       </c>
+      <c r="AL22" t="n">
+        <v>205386</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>213106</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>215035.008</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3149,6 +3353,15 @@
       <c r="AK23" t="n">
         <v>13245</v>
       </c>
+      <c r="AL23" t="n">
+        <v>12738</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>12154</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>11005</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3264,6 +3477,15 @@
       <c r="AK24" t="n">
         <v>1543398.016</v>
       </c>
+      <c r="AL24" t="n">
+        <v>1695975.04</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1671147.008</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1652813.952</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3379,6 +3601,15 @@
       <c r="AK25" t="n">
         <v>0</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3494,6 +3725,15 @@
       <c r="AK26" t="n">
         <v>2293665.024</v>
       </c>
+      <c r="AL26" t="n">
+        <v>2543864.064</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2615521.024</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2532305.92</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3609,6 +3849,15 @@
       <c r="AK27" t="n">
         <v>579950.976</v>
       </c>
+      <c r="AL27" t="n">
+        <v>595363.968</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>588588.992</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>544990.0159999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3724,6 +3973,15 @@
       <c r="AK28" t="n">
         <v>47403</v>
       </c>
+      <c r="AL28" t="n">
+        <v>46707</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>37625</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>37581</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3839,6 +4097,15 @@
       <c r="AK29" t="n">
         <v>161144.992</v>
       </c>
+      <c r="AL29" t="n">
+        <v>142064</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>163934</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>195474</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3954,6 +4221,15 @@
       <c r="AK30" t="n">
         <v>40804</v>
       </c>
+      <c r="AL30" t="n">
+        <v>45337</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>38937</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>42642</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4069,6 +4345,15 @@
       <c r="AK31" t="n">
         <v>26361</v>
       </c>
+      <c r="AL31" t="n">
+        <v>37132</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>32799</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>45536</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4184,6 +4469,15 @@
       <c r="AK32" t="n">
         <v>0</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4299,6 +4593,15 @@
       <c r="AK33" t="n">
         <v>60523</v>
       </c>
+      <c r="AL33" t="n">
+        <v>68239</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>58679</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>46752</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4414,6 +4717,15 @@
       <c r="AK34" t="n">
         <v>243715.016</v>
       </c>
+      <c r="AL34" t="n">
+        <v>255885</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>256615.016</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>177004.992</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4529,6 +4841,15 @@
       <c r="AK35" t="n">
         <v>0</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4644,6 +4965,15 @@
       <c r="AK36" t="n">
         <v>0</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4759,6 +5089,15 @@
       <c r="AK37" t="n">
         <v>767219.008</v>
       </c>
+      <c r="AL37" t="n">
+        <v>792921.024</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>810825.024</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>739190.0159999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4874,6 +5213,15 @@
       <c r="AK38" t="n">
         <v>327768</v>
       </c>
+      <c r="AL38" t="n">
+        <v>318983.008</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>312913.984</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>309963.008</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4989,6 +5337,15 @@
       <c r="AK39" t="n">
         <v>0</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5104,6 +5461,15 @@
       <c r="AK40" t="n">
         <v>382097.984</v>
       </c>
+      <c r="AL40" t="n">
+        <v>382619.008</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>396228</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>321576</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5219,6 +5585,15 @@
       <c r="AK41" t="n">
         <v>38356</v>
       </c>
+      <c r="AL41" t="n">
+        <v>72610</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>82476</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>87171</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5334,6 +5709,15 @@
       <c r="AK42" t="n">
         <v>0</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5449,6 +5833,15 @@
       <c r="AK43" t="n">
         <v>18997</v>
       </c>
+      <c r="AL43" t="n">
+        <v>18709</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>19207</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>20480</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5564,6 +5957,15 @@
       <c r="AK44" t="n">
         <v>0</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5679,6 +6081,15 @@
       <c r="AK45" t="n">
         <v>0</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5794,6 +6205,15 @@
       <c r="AK46" t="n">
         <v>487240.992</v>
       </c>
+      <c r="AL46" t="n">
+        <v>673937.024</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>696971.008</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>699084.032</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5909,6 +6329,15 @@
       <c r="AK47" t="n">
         <v>459253.984</v>
       </c>
+      <c r="AL47" t="n">
+        <v>481641.9839999999</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>519135.9999999999</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>549041.92</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6024,6 +6453,15 @@
       <c r="AK48" t="n">
         <v>40000</v>
       </c>
+      <c r="AL48" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6139,6 +6577,15 @@
       <c r="AK49" t="n">
         <v>33454</v>
       </c>
+      <c r="AL49" t="n">
+        <v>33454</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>33454</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>33454</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6254,6 +6701,15 @@
       <c r="AK50" t="n">
         <v>0</v>
       </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6369,6 +6825,15 @@
       <c r="AK51" t="n">
         <v>301776.992</v>
       </c>
+      <c r="AL51" t="n">
+        <v>407580</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>407580</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>403599.008</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6484,6 +6949,15 @@
       <c r="AK52" t="n">
         <v>83415</v>
       </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>37494</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>71381</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6599,6 +7073,15 @@
       <c r="AK53" t="n">
         <v>608</v>
       </c>
+      <c r="AL53" t="n">
+        <v>608</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>608</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6714,6 +7197,15 @@
       <c r="AK54" t="n">
         <v>0</v>
       </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6829,6 +7321,15 @@
       <c r="AK55" t="n">
         <v>0</v>
       </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6942,6 +7443,15 @@
         <v>0</v>
       </c>
       <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6987,6 +7497,9 @@
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7030,6 +7543,9 @@
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
       <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7143,6 +7659,15 @@
       <c r="AK59" t="n">
         <v>287620.992</v>
       </c>
+      <c r="AL59" t="n">
+        <v>321942.944</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>291135.008</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>307995.008</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7256,6 +7781,15 @@
       <c r="AK60" t="n">
         <v>-111811</v>
       </c>
+      <c r="AL60" t="n">
+        <v>-110100</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-115154</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-110142</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7369,6 +7903,15 @@
       <c r="AK61" t="n">
         <v>175810</v>
       </c>
+      <c r="AL61" t="n">
+        <v>211843.04</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>175980.992</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>197852.992</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7482,6 +8025,15 @@
       <c r="AK62" t="n">
         <v>0</v>
       </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7595,6 +8147,15 @@
       <c r="AK63" t="n">
         <v>-30437</v>
       </c>
+      <c r="AL63" t="n">
+        <v>-38602</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-36902</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-44202</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7708,6 +8269,15 @@
       <c r="AK64" t="n">
         <v>0</v>
       </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7821,6 +8391,15 @@
       <c r="AK65" t="n">
         <v>13589</v>
       </c>
+      <c r="AL65" t="n">
+        <v>18873</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>16146</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>14632</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7934,6 +8513,15 @@
       <c r="AK66" t="n">
         <v>-32948</v>
       </c>
+      <c r="AL66" t="n">
+        <v>-72370</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-35850</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-38139</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8047,6 +8635,15 @@
       <c r="AK67" t="n">
         <v>5683</v>
       </c>
+      <c r="AL67" t="n">
+        <v>6917</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>8693</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>7930</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8160,6 +8757,15 @@
       <c r="AK68" t="n">
         <v>-23181</v>
       </c>
+      <c r="AL68" t="n">
+        <v>-8610</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>-21470</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>-24811</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8273,6 +8879,15 @@
       <c r="AK69" t="n">
         <v>14619</v>
       </c>
+      <c r="AL69" t="n">
+        <v>22138</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>13844</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>13125</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8385,6 +9000,15 @@
       </c>
       <c r="AK70" t="n">
         <v>-37800</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>-30748</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>-35314</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>-37936</v>
       </c>
     </row>
     <row r="71">
@@ -8429,6 +9053,9 @@
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8472,6 +9099,9 @@
       <c r="AI72" t="inlineStr"/>
       <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8515,6 +9145,9 @@
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8628,6 +9261,15 @@
       <c r="AK74" t="n">
         <v>108516</v>
       </c>
+      <c r="AL74" t="n">
+        <v>118051.008</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>106598</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>113263</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8741,6 +9383,15 @@
       <c r="AK75" t="n">
         <v>-41470</v>
       </c>
+      <c r="AL75" t="n">
+        <v>-31713</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>-33729</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>-40721</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8853,6 +9504,15 @@
       </c>
       <c r="AK76" t="n">
         <v>6206</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>-1495</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>-5622</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>-3037</v>
       </c>
     </row>
     <row r="77">
@@ -8897,6 +9557,9 @@
       <c r="AI77" t="inlineStr"/>
       <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8940,6 +9603,9 @@
       <c r="AI78" t="inlineStr"/>
       <c r="AJ78" t="inlineStr"/>
       <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9053,6 +9719,15 @@
       <c r="AK79" t="n">
         <v>-28746</v>
       </c>
+      <c r="AL79" t="n">
+        <v>-26676</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>-29752</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>-35619</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9165,6 +9840,15 @@
       </c>
       <c r="AK80" t="n">
         <v>44506</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>58167</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>37494</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>33887</v>
       </c>
     </row>
   </sheetData>
